--- a/data/FADE (TRY).xlsx
+++ b/data/FADE (TRY).xlsx
@@ -4757,6 +4757,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>71816352</v>
+      </c>
       <c r="D108">
         <v>89760518.27673465</v>
       </c>
@@ -5055,6 +5058,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>349326032</v>
+      </c>
       <c r="D5">
         <v>211584867.79707357</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>55890262.107238755</v>
       </c>
       <c r="F5">
-        <v>255393773.84436128</v>
+        <v>266516747</v>
       </c>
       <c r="G5">
         <v>203227937.99708572</v>
@@ -5108,6 +5114,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>534632938</v>
+      </c>
       <c r="D6">
         <v>222215271.1201563</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>101561334.6758158</v>
       </c>
       <c r="F6">
-        <v>275670273.22878695</v>
+        <v>287676333</v>
       </c>
       <c r="G6">
         <v>165947363.47337386</v>
@@ -7718,7 +7727,7 @@
         <v>55890262.107238755</v>
       </c>
       <c r="F5">
-        <v>52165835.847275555</v>
+        <v>63288809.00291428</v>
       </c>
       <c r="G5">
         <v>43376264.91591197</v>
@@ -7765,7 +7774,7 @@
         <v>101561334.6758158</v>
       </c>
       <c r="F6">
-        <v>109722909.75541309</v>
+        <v>121728969.52662614</v>
       </c>
       <c r="G6">
         <v>57032653.072865576</v>
@@ -10256,14 +10265,17 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>349326032</v>
+      </c>
       <c r="D5">
-        <v>307126968.56026113</v>
+        <v>318249941.7158998</v>
       </c>
       <c r="E5">
-        <v>295329707.34944564</v>
+        <v>306452680.50508434</v>
       </c>
       <c r="F5">
-        <v>255393773.84436128</v>
+        <v>266516747</v>
       </c>
       <c r="G5">
         <v>218533207.72709632</v>
@@ -10291,14 +10303,17 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>534632938</v>
+      </c>
       <c r="D6">
-        <v>388970833.94843495</v>
+        <v>400976893.719648</v>
       </c>
       <c r="E6">
-        <v>320155763.9928898</v>
+        <v>332161823.7641029</v>
       </c>
       <c r="F6">
-        <v>275670273.22878695</v>
+        <v>287676333</v>
       </c>
       <c r="G6">
         <v>230521698.0692029</v>
